--- a/0. Nomina/Info.xlsx
+++ b/0. Nomina/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A340E8-292B-40B8-9811-233F75A990C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B37385-FD8C-42C9-9951-B4673437648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Profesionales" sheetId="10" r:id="rId1"/>
@@ -506,236 +506,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1080,6 +850,236 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1145,58 +1145,58 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79023FAA-DFCC-4099-8434-8B0ABE97BE60}" name="Tabla2" displayName="Tabla2" ref="A1:A3" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79023FAA-DFCC-4099-8434-8B0ABE97BE60}" name="Tabla2" displayName="Tabla2" ref="A1:A3" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="A1:A3" xr:uid="{79023FAA-DFCC-4099-8434-8B0ABE97BE60}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E276A64E-DFE7-4A30-8A37-48100B539CF1}" name="Servicio" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{E276A64E-DFE7-4A30-8A37-48100B539CF1}" name="Servicio" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9D0885F4-CA16-4572-BF62-C213839735A0}" name="Tabla7" displayName="Tabla7" ref="A1:A3" totalsRowShown="0" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9D0885F4-CA16-4572-BF62-C213839735A0}" name="Tabla7" displayName="Tabla7" ref="A1:A3" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="A1:A3" xr:uid="{9D0885F4-CA16-4572-BF62-C213839735A0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DF5631F7-88DE-4C9E-A41E-6CD65918D18B}" name="Servicio" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{DF5631F7-88DE-4C9E-A41E-6CD65918D18B}" name="Servicio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}" name="Tabla12" displayName="Tabla12" ref="B2:L123" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}" name="Tabla12" displayName="Tabla12" ref="B2:L123" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="B2:L123" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{0AE342CE-E699-4674-A921-02F9F207D78B}" name="Servicio" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{419527B9-DDA5-4A0B-905E-3A831C54499E}" name="1. Tocador" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{0AE342CE-E699-4674-A921-02F9F207D78B}" name="Servicio" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{419527B9-DDA5-4A0B-905E-3A831C54499E}" name="1. Tocador" dataDxfId="34">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{99DC3151-6C30-444A-BA5C-53DB38CD220F}" name="2. Spa" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{99DC3151-6C30-444A-BA5C-53DB38CD220F}" name="2. Spa" dataDxfId="33">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BA3838B7-7F09-4EFB-9D32-BB9DFD02D26F}" name="3. Depilacion" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{BA3838B7-7F09-4EFB-9D32-BB9DFD02D26F}" name="3. Depilacion" dataDxfId="32">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5A247591-A58E-4EC6-AC99-2ADC27E4872C}" name="4. Bac" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{5A247591-A58E-4EC6-AC99-2ADC27E4872C}" name="4. Bac" dataDxfId="31">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E1532FE0-39AB-4F45-81F6-CFEF920628FE}" name="5. Colorimetria" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{E1532FE0-39AB-4F45-81F6-CFEF920628FE}" name="5. Colorimetria" dataDxfId="30">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{16A474C9-BB75-4268-AE3E-3C3DEB67229E}" name="6. Venta" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{16A474C9-BB75-4268-AE3E-3C3DEB67229E}" name="6. Venta" dataDxfId="29">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3CF11973-154C-4E96-82A9-31E0B527D076}" name="7. Maquillaje" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{3CF11973-154C-4E96-82A9-31E0B527D076}" name="7. Maquillaje" dataDxfId="28">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F0E7B1E6-9CCD-48D9-A9AF-6D5A72E8E9E2}" name="8. Maquillaje Salon" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{F0E7B1E6-9CCD-48D9-A9AF-6D5A72E8E9E2}" name="8. Maquillaje Salon" dataDxfId="27">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{ACBEE4F2-B48F-432D-9A07-7BE3CE0D5D1D}" name="9. Accesorios" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{ACBEE4F2-B48F-432D-9A07-7BE3CE0D5D1D}" name="9. Accesorios" dataDxfId="26">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7C405853-C47F-4C20-8EE1-68C01368E1B6}" name="Vericador" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{7C405853-C47F-4C20-8EE1-68C01368E1B6}" name="Vericador" dataDxfId="25">
       <calculatedColumnFormula>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1205,70 +1205,70 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}" name="Tabla4" displayName="Tabla4" ref="A1:A21" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}" name="Tabla4" displayName="Tabla4" ref="A1:A21" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:A21" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{21692516-7C50-4234-9E59-8754AD7371D9}" name="Servicio" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{21692516-7C50-4234-9E59-8754AD7371D9}" name="Servicio" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}" name="Tabla5" displayName="Tabla5" ref="A1:A26" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}" name="Tabla5" displayName="Tabla5" ref="A1:A26" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:A26" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EC786493-6094-480F-9692-94A07AC2F5C2}" name="Servicio" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{EC786493-6094-480F-9692-94A07AC2F5C2}" name="Servicio" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}" name="Tabla6" displayName="Tabla6" ref="A1:A11" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}" name="Tabla6" displayName="Tabla6" ref="A1:A11" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:A11" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E7C4D8EA-5DCF-40D4-A927-81FEDB24ECEE}" name="Servicio" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{E7C4D8EA-5DCF-40D4-A927-81FEDB24ECEE}" name="Servicio" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}" name="Tabla8" displayName="Tabla8" ref="A1:A47" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}" name="Tabla8" displayName="Tabla8" ref="A1:A47" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:A47" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F6BDF89A-26A1-465D-8AC4-4D1B0D141FDA}" name="Servicio" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{F6BDF89A-26A1-465D-8AC4-4D1B0D141FDA}" name="Servicio" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}" name="Tabla9" displayName="Tabla9" ref="A1:A8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}" name="Tabla9" displayName="Tabla9" ref="A1:A8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:A8" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{98EAFF14-E836-4D53-B221-D8250D4DCB23}" name="Servicio" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{98EAFF14-E836-4D53-B221-D8250D4DCB23}" name="Servicio" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}" name="Tabla10" displayName="Tabla10" ref="A1:A11" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}" name="Tabla10" displayName="Tabla10" ref="A1:A11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:A11" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DB57ABA3-E3AD-4F77-B798-6C0D142D72DC}" name="Servicio" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{DB57ABA3-E3AD-4F77-B798-6C0D142D72DC}" name="Servicio" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7078223E-2CA2-4886-AAC7-7593F378EE8C}" name="Tabla11" displayName="Tabla11" ref="A1:A2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7078223E-2CA2-4886-AAC7-7593F378EE8C}" name="Tabla11" displayName="Tabla11" ref="A1:A2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:A2" xr:uid="{7078223E-2CA2-4886-AAC7-7593F378EE8C}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2A377931-5BF1-45D1-B1D6-E5A543AFA247}" name="Servicio" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{2A377931-5BF1-45D1-B1D6-E5A543AFA247}" name="Servicio" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1573,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB14EE81-1336-48D1-AF56-B5F648183D15}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1723,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C0B312-857B-4CB8-9169-D3C16819EF41}">
   <dimension ref="B1:O123"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7267,7 +7267,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A21" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7393,7 +7393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2404B588-A5E7-4A4D-862D-34C6987F986E}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7543,7 +7545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF576B40-A3A0-4963-907F-D5A9DDD7522F}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7619,7 +7623,7 @@
   <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7875,7 +7879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B6EF07-1B24-43F3-84D1-8FE766884035}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7935,9 +7941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A6DBDC-6E11-4A4A-8118-90EDBF21AE1E}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/0. Nomina/Info.xlsx
+++ b/0. Nomina/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B37385-FD8C-42C9-9951-B4673437648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B929BA4C-EE80-4E22-85FF-D2D2DF8900BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="116">
   <si>
     <t>Blower  Cabello medio</t>
   </si>
@@ -1205,8 +1205,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}" name="Tabla4" displayName="Tabla4" ref="A1:A21" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:A21" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}" name="Tabla4" displayName="Tabla4" ref="A1:A19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:A19" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{21692516-7C50-4234-9E59-8754AD7371D9}" name="Servicio" dataDxfId="22"/>
   </tableColumns>
@@ -1245,8 +1245,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}" name="Tabla9" displayName="Tabla9" ref="A1:A8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:A8" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}" name="Tabla9" displayName="Tabla9" ref="A1:A9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:A9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{98EAFF14-E836-4D53-B221-D8250D4DCB23}" name="Servicio" dataDxfId="10"/>
   </tableColumns>
@@ -1723,9 +1723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C0B312-857B-4CB8-9169-D3C16819EF41}">
   <dimension ref="B1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7123,9 +7121,9 @@
       <c r="B121" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C121" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="C121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="D121" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
@@ -7139,9 +7137,9 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="G121" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="G121" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="H121" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
@@ -7264,10 +7262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD82325-C883-442E-BAE1-2232B8CCAA6F}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A2:A21"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7358,27 +7356,17 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -7877,10 +7865,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B6EF07-1B24-43F3-84D1-8FE766884035}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7927,6 +7915,11 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/0. Nomina/Info.xlsx
+++ b/0. Nomina/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B929BA4C-EE80-4E22-85FF-D2D2DF8900BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5539ACA3-D38A-4112-87AD-E13A13A61D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Profesionales" sheetId="10" r:id="rId1"/>
@@ -1573,7 +1573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB14EE81-1336-48D1-AF56-B5F648183D15}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1723,7 +1725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C0B312-857B-4CB8-9169-D3C16819EF41}">
   <dimension ref="B1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/0. Nomina/Info.xlsx
+++ b/0. Nomina/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5539ACA3-D38A-4112-87AD-E13A13A61D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652C516F-76FD-448B-A139-4B32185149CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Profesionales" sheetId="10" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="124">
   <si>
     <t>Blower  Cabello medio</t>
   </si>
@@ -392,6 +392,30 @@
   </si>
   <si>
     <t>Ines Torres</t>
+  </si>
+  <si>
+    <t>Cambio Esmalte Semipermanente Manos o Pies</t>
+  </si>
+  <si>
+    <t>Ceremonia capilar cabello extra largo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Combo 3 Depilación  (completa)</t>
+  </si>
+  <si>
+    <t>Base Global  tinte Innoa desde</t>
+  </si>
+  <si>
+    <t>Limpieza termocut( No Incluye Corte Diseñado)</t>
+  </si>
+  <si>
+    <t>Sombreado de Cejas henna</t>
+  </si>
+  <si>
+    <t>Manicure + Tech Gel  + esmaltado Semipermanente Largo 1.2.3 ( Montura)</t>
+  </si>
+  <si>
+    <t>Cuticle revitaizer oil</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1189,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}" name="Tabla12" displayName="Tabla12" ref="B2:L123" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="B2:L123" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}" name="Tabla12" displayName="Tabla12" ref="B2:L131" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="B2:L131" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{0AE342CE-E699-4674-A921-02F9F207D78B}" name="Servicio" dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{419527B9-DDA5-4A0B-905E-3A831C54499E}" name="1. Tocador" dataDxfId="34">
@@ -1205,8 +1229,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}" name="Tabla4" displayName="Tabla4" ref="A1:A19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:A19" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}" name="Tabla4" displayName="Tabla4" ref="A1:A20" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:A20" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{21692516-7C50-4234-9E59-8754AD7371D9}" name="Servicio" dataDxfId="22"/>
   </tableColumns>
@@ -1215,8 +1239,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}" name="Tabla5" displayName="Tabla5" ref="A1:A26" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:A26" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}" name="Tabla5" displayName="Tabla5" ref="A1:A28" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:A28" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{EC786493-6094-480F-9692-94A07AC2F5C2}" name="Servicio" dataDxfId="19"/>
   </tableColumns>
@@ -1225,8 +1249,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}" name="Tabla6" displayName="Tabla6" ref="A1:A11" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:A11" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}" name="Tabla6" displayName="Tabla6" ref="A1:A13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:A13" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E7C4D8EA-5DCF-40D4-A927-81FEDB24ECEE}" name="Servicio" dataDxfId="16"/>
   </tableColumns>
@@ -1235,8 +1259,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}" name="Tabla8" displayName="Tabla8" ref="A1:A47" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:A47" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}" name="Tabla8" displayName="Tabla8" ref="A1:A48" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:A48" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{F6BDF89A-26A1-465D-8AC4-4D1B0D141FDA}" name="Servicio" dataDxfId="13"/>
   </tableColumns>
@@ -1245,8 +1269,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}" name="Tabla9" displayName="Tabla9" ref="A1:A9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:A9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}" name="Tabla9" displayName="Tabla9" ref="A1:A10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:A10" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{98EAFF14-E836-4D53-B221-D8250D4DCB23}" name="Servicio" dataDxfId="10"/>
   </tableColumns>
@@ -1255,8 +1279,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}" name="Tabla10" displayName="Tabla10" ref="A1:A11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:A11" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}" name="Tabla10" displayName="Tabla10" ref="A1:A12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:A12" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{DB57ABA3-E3AD-4F77-B798-6C0D142D72DC}" name="Servicio" dataDxfId="7"/>
   </tableColumns>
@@ -1573,7 +1597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB14EE81-1336-48D1-AF56-B5F648183D15}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1723,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C0B312-857B-4CB8-9169-D3C16819EF41}">
-  <dimension ref="B1:O123"/>
+  <dimension ref="B1:O131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7256,6 +7280,366 @@
         <v/>
       </c>
     </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D124" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L124" s="17" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F125" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L125" s="17" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E126" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L126" s="17" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G127" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L127" s="17" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L128" s="17" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B129" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E129" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L129" s="17" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D130" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L130" s="17" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B131" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H131" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L131" s="17" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7266,11 +7650,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD82325-C883-442E-BAE1-2232B8CCAA6F}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7373,6 +7755,11 @@
         <v>112</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7383,10 +7770,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2404B588-A5E7-4A4D-862D-34C6987F986E}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7525,6 +7912,16 @@
         <v>96</v>
       </c>
     </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7535,10 +7932,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF576B40-A3A0-4963-907F-D5A9DDD7522F}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7602,6 +7999,16 @@
         <v>95</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7612,10 +8019,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5635A02E-CA20-433E-BF86-A0572048DCDB}">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A47"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7859,6 +8266,11 @@
         <v>109</v>
       </c>
     </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7869,7 +8281,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B6EF07-1B24-43F3-84D1-8FE766884035}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -7926,6 +8338,11 @@
         <v>111</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7936,9 +8353,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A6DBDC-6E11-4A4A-8118-90EDBF21AE1E}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7999,6 +8418,11 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/0. Nomina/Info.xlsx
+++ b/0. Nomina/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652C516F-76FD-448B-A139-4B32185149CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12096A3F-0883-414D-A1E7-B8C53B9DD5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Profesionales" sheetId="10" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="127">
   <si>
     <t>Blower  Cabello medio</t>
   </si>
@@ -416,6 +416,15 @@
   </si>
   <si>
     <t>Cuticle revitaizer oil</t>
+  </si>
+  <si>
+    <t>Balaca queratina desde</t>
+  </si>
+  <si>
+    <t>Essential Densifying lotion -  Caja de 12 unidades  por 7 Unidades</t>
+  </si>
+  <si>
+    <t>Scalego densifying Shampoo 300 ml</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1198,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}" name="Tabla12" displayName="Tabla12" ref="B2:L131" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="B2:L131" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}" name="Tabla12" displayName="Tabla12" ref="B2:L134" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="B2:L134" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{0AE342CE-E699-4674-A921-02F9F207D78B}" name="Servicio" dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{419527B9-DDA5-4A0B-905E-3A831C54499E}" name="1. Tocador" dataDxfId="34">
@@ -1269,8 +1278,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}" name="Tabla9" displayName="Tabla9" ref="A1:A10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:A10" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}" name="Tabla9" displayName="Tabla9" ref="A1:A11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:A11" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{98EAFF14-E836-4D53-B221-D8250D4DCB23}" name="Servicio" dataDxfId="10"/>
   </tableColumns>
@@ -1279,8 +1288,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}" name="Tabla10" displayName="Tabla10" ref="A1:A12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:A12" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}" name="Tabla10" displayName="Tabla10" ref="A1:A14" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:A14" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{DB57ABA3-E3AD-4F77-B798-6C0D142D72DC}" name="Servicio" dataDxfId="7"/>
   </tableColumns>
@@ -1747,11 +1756,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C0B312-857B-4CB8-9169-D3C16819EF41}">
-  <dimension ref="B1:O131"/>
+  <dimension ref="B1:O134"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7640,6 +7647,141 @@
         <v/>
       </c>
     </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B132" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G132" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L132" s="17" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B133" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H133" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L133" s="17" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B134" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H134" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L134" s="17" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7652,7 +7794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD82325-C883-442E-BAE1-2232B8CCAA6F}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8281,10 +8423,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B6EF07-1B24-43F3-84D1-8FE766884035}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8343,6 +8485,11 @@
         <v>119</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8353,10 +8500,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A6DBDC-6E11-4A4A-8118-90EDBF21AE1E}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8423,6 +8570,16 @@
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/0. Nomina/Info.xlsx
+++ b/0. Nomina/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12096A3F-0883-414D-A1E7-B8C53B9DD5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A3CB9A-716E-424C-90AE-D76D059146EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
   </bookViews>

--- a/0. Nomina/Info.xlsx
+++ b/0. Nomina/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A3CB9A-716E-424C-90AE-D76D059146EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6D1DDD-907B-41F5-A4C1-0CC0822E1D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <sheet name="7. Maquillaje" sheetId="9" r:id="rId9"/>
     <sheet name="8. Maquillaje Salon" sheetId="11" r:id="rId10"/>
     <sheet name="9. Accesorios" sheetId="12" r:id="rId11"/>
+    <sheet name="10. Queratina" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="130">
   <si>
     <t>Blower  Cabello medio</t>
   </si>
@@ -100,9 +101,6 @@
     <t>Spa Manicure Gel Evolution</t>
   </si>
   <si>
-    <t>Decoración Uñas Tradicional Desde</t>
-  </si>
-  <si>
     <t>Manicure +  Baño Acrilico + Esmaltado Semipermanente</t>
   </si>
   <si>
@@ -133,9 +131,6 @@
     <t xml:space="preserve">Retiro Acrilicas </t>
   </si>
   <si>
-    <t>Decoracion Uña Acrilica Desde</t>
-  </si>
-  <si>
     <t>Retiro Base Rubber</t>
   </si>
   <si>
@@ -157,9 +152,6 @@
     <t>Depilacion Cejas Cera</t>
   </si>
   <si>
-    <t>Bikini completo brasilero Cera</t>
-  </si>
-  <si>
     <t>Depilacion Bigote (Hilo)</t>
   </si>
   <si>
@@ -199,15 +191,6 @@
     <t>Aplicacion shampoo traido cliente</t>
   </si>
   <si>
-    <t>Retoque Raiz tinte desde</t>
-  </si>
-  <si>
-    <t>Base Global Tinte desde</t>
-  </si>
-  <si>
-    <t>Baby Light cabello desde</t>
-  </si>
-  <si>
     <t>Sandalias</t>
   </si>
   <si>
@@ -289,9 +272,6 @@
     <t>Aplicación de tinte traída por el cliente</t>
   </si>
   <si>
-    <t>Reversibles  desde</t>
-  </si>
-  <si>
     <t>depilacion cejas y bigote (hilo)</t>
   </si>
   <si>
@@ -316,9 +296,6 @@
     <t>Depilacion Completa cera- pierna completa, bikini completo, axila, bigote y cejas</t>
   </si>
   <si>
-    <t>Balayage Previa Valoracion &amp; Diagnostico desde</t>
-  </si>
-  <si>
     <t>Ceremonia capilar cabello corto</t>
   </si>
   <si>
@@ -355,9 +332,6 @@
     <t>Accesorios Mrta</t>
   </si>
   <si>
-    <t>Solo el costo finan</t>
-  </si>
-  <si>
     <t>8. Maquillaje Salon</t>
   </si>
   <si>
@@ -403,9 +377,6 @@
     <t xml:space="preserve"> Combo 3 Depilación  (completa)</t>
   </si>
   <si>
-    <t>Base Global  tinte Innoa desde</t>
-  </si>
-  <si>
     <t>Limpieza termocut( No Incluye Corte Diseñado)</t>
   </si>
   <si>
@@ -418,13 +389,52 @@
     <t>Cuticle revitaizer oil</t>
   </si>
   <si>
-    <t>Balaca queratina desde</t>
-  </si>
-  <si>
     <t>Essential Densifying lotion -  Caja de 12 unidades  por 7 Unidades</t>
   </si>
   <si>
     <t>Scalego densifying Shampoo 300 ml</t>
+  </si>
+  <si>
+    <t>Baby Light cabello (desde)</t>
+  </si>
+  <si>
+    <t>Balaca queratina (desde)</t>
+  </si>
+  <si>
+    <t>Contouring (desde)</t>
+  </si>
+  <si>
+    <t>Decoracion Uña Acrilica (desde)</t>
+  </si>
+  <si>
+    <t>Scalp-Ego densifying Shampoo 300 ml</t>
+  </si>
+  <si>
+    <t>Base Global Tinte (desde)</t>
+  </si>
+  <si>
+    <t>Retoque Raiz tinte (desde)</t>
+  </si>
+  <si>
+    <t>Depilacion bikini completo brasilero cera</t>
+  </si>
+  <si>
+    <t>Scalp-Ego energizing Shampoo 300 ml</t>
+  </si>
+  <si>
+    <t>Balayage Previa Valoracion &amp; Diagnostico (desde)</t>
+  </si>
+  <si>
+    <t>Reversibles  (desde)</t>
+  </si>
+  <si>
+    <t>Decoración Uñas Tradicional (desde)</t>
+  </si>
+  <si>
+    <t>Base Global  tinte Innoa (desde)</t>
+  </si>
+  <si>
+    <t>10. Queratina</t>
   </si>
 </sst>
 </file>
@@ -500,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -523,7 +533,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,8 +547,117 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="46">
     <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -548,6 +666,32 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -883,23 +1027,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1168,69 +1295,82 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8A17379-BA46-4212-9EC9-9D0965690188}" name="Tabla1" displayName="Tabla1" ref="A1:A12" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8A17379-BA46-4212-9EC9-9D0965690188}" name="Tabla1" displayName="Tabla1" ref="A1:A12" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:A12" xr:uid="{D8A17379-BA46-4212-9EC9-9D0965690188}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DDDF52DE-A7F5-4918-BAE0-228DFC5015C3}" name="Profesional" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{DDDF52DE-A7F5-4918-BAE0-228DFC5015C3}" name="Profesional" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79023FAA-DFCC-4099-8434-8B0ABE97BE60}" name="Tabla2" displayName="Tabla2" ref="A1:A3" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79023FAA-DFCC-4099-8434-8B0ABE97BE60}" name="Tabla2" displayName="Tabla2" ref="A1:A3" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A1:A3" xr:uid="{79023FAA-DFCC-4099-8434-8B0ABE97BE60}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E276A64E-DFE7-4A30-8A37-48100B539CF1}" name="Servicio" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E276A64E-DFE7-4A30-8A37-48100B539CF1}" name="Servicio" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9D0885F4-CA16-4572-BF62-C213839735A0}" name="Tabla7" displayName="Tabla7" ref="A1:A3" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9D0885F4-CA16-4572-BF62-C213839735A0}" name="Tabla7" displayName="Tabla7" ref="A1:A3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:A3" xr:uid="{9D0885F4-CA16-4572-BF62-C213839735A0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DF5631F7-88DE-4C9E-A41E-6CD65918D18B}" name="Servicio" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DF5631F7-88DE-4C9E-A41E-6CD65918D18B}" name="Servicio" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{04C2D0A5-8FA9-4925-B13C-6CB7D03F424B}" name="Tabla3" displayName="Tabla3" ref="A1:A3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+  <autoFilter ref="A1:A3" xr:uid="{04C2D0A5-8FA9-4925-B13C-6CB7D03F424B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{0E3F8AF1-1BBF-40AC-9F22-6156B84E2280}" name="Servicio" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}" name="Tabla12" displayName="Tabla12" ref="B2:L134" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="B2:L134" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{0AE342CE-E699-4674-A921-02F9F207D78B}" name="Servicio" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{419527B9-DDA5-4A0B-905E-3A831C54499E}" name="1. Tocador" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}" name="Tabla12" displayName="Tabla12" ref="B2:M137" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="B2:M137" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{0AE342CE-E699-4674-A921-02F9F207D78B}" name="Servicio" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{419527B9-DDA5-4A0B-905E-3A831C54499E}" name="1. Tocador" dataDxfId="39">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{99DC3151-6C30-444A-BA5C-53DB38CD220F}" name="2. Spa" dataDxfId="33">
+    <tableColumn id="3" xr3:uid="{99DC3151-6C30-444A-BA5C-53DB38CD220F}" name="2. Spa" dataDxfId="38">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BA3838B7-7F09-4EFB-9D32-BB9DFD02D26F}" name="3. Depilacion" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{BA3838B7-7F09-4EFB-9D32-BB9DFD02D26F}" name="3. Depilacion" dataDxfId="37">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5A247591-A58E-4EC6-AC99-2ADC27E4872C}" name="4. Bac" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{5A247591-A58E-4EC6-AC99-2ADC27E4872C}" name="4. Bac" dataDxfId="36">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E1532FE0-39AB-4F45-81F6-CFEF920628FE}" name="5. Colorimetria" dataDxfId="30">
+    <tableColumn id="6" xr3:uid="{E1532FE0-39AB-4F45-81F6-CFEF920628FE}" name="5. Colorimetria" dataDxfId="35">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{16A474C9-BB75-4268-AE3E-3C3DEB67229E}" name="6. Venta" dataDxfId="29">
+    <tableColumn id="7" xr3:uid="{16A474C9-BB75-4268-AE3E-3C3DEB67229E}" name="6. Venta" dataDxfId="34">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3CF11973-154C-4E96-82A9-31E0B527D076}" name="7. Maquillaje" dataDxfId="28">
+    <tableColumn id="8" xr3:uid="{3CF11973-154C-4E96-82A9-31E0B527D076}" name="7. Maquillaje" dataDxfId="33">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F0E7B1E6-9CCD-48D9-A9AF-6D5A72E8E9E2}" name="8. Maquillaje Salon" dataDxfId="27">
+    <tableColumn id="10" xr3:uid="{F0E7B1E6-9CCD-48D9-A9AF-6D5A72E8E9E2}" name="8. Maquillaje Salon" dataDxfId="32">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{ACBEE4F2-B48F-432D-9A07-7BE3CE0D5D1D}" name="9. Accesorios" dataDxfId="26">
+    <tableColumn id="11" xr3:uid="{ACBEE4F2-B48F-432D-9A07-7BE3CE0D5D1D}" name="9. Accesorios" dataDxfId="31">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7C405853-C47F-4C20-8EE1-68C01368E1B6}" name="Vericador" dataDxfId="25">
-      <calculatedColumnFormula>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{4F5B7738-418D-4F08-845F-79C3CBAEA662}" name="10. Queratina" dataDxfId="1">
+      <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{7C405853-C47F-4C20-8EE1-68C01368E1B6}" name="Vericador" dataDxfId="0">
+      <calculatedColumnFormula>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1238,70 +1378,70 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}" name="Tabla4" displayName="Tabla4" ref="A1:A20" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}" name="Tabla4" displayName="Tabla4" ref="A1:A20" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:A20" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{21692516-7C50-4234-9E59-8754AD7371D9}" name="Servicio" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{21692516-7C50-4234-9E59-8754AD7371D9}" name="Servicio" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}" name="Tabla5" displayName="Tabla5" ref="A1:A28" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}" name="Tabla5" displayName="Tabla5" ref="A1:A28" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:A28" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EC786493-6094-480F-9692-94A07AC2F5C2}" name="Servicio" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{EC786493-6094-480F-9692-94A07AC2F5C2}" name="Servicio" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}" name="Tabla6" displayName="Tabla6" ref="A1:A13" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}" name="Tabla6" displayName="Tabla6" ref="A1:A13" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:A13" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E7C4D8EA-5DCF-40D4-A927-81FEDB24ECEE}" name="Servicio" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{E7C4D8EA-5DCF-40D4-A927-81FEDB24ECEE}" name="Servicio" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}" name="Tabla8" displayName="Tabla8" ref="A1:A48" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}" name="Tabla8" displayName="Tabla8" ref="A1:A48" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:A48" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F6BDF89A-26A1-465D-8AC4-4D1B0D141FDA}" name="Servicio" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{F6BDF89A-26A1-465D-8AC4-4D1B0D141FDA}" name="Servicio" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}" name="Tabla9" displayName="Tabla9" ref="A1:A11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:A11" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}" name="Tabla9" displayName="Tabla9" ref="A1:A10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:A10" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{98EAFF14-E836-4D53-B221-D8250D4DCB23}" name="Servicio" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{98EAFF14-E836-4D53-B221-D8250D4DCB23}" name="Servicio" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}" name="Tabla10" displayName="Tabla10" ref="A1:A14" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:A14" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}" name="Tabla10" displayName="Tabla10" ref="A1:A16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:A16" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DB57ABA3-E3AD-4F77-B798-6C0D142D72DC}" name="Servicio" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{DB57ABA3-E3AD-4F77-B798-6C0D142D72DC}" name="Servicio" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7078223E-2CA2-4886-AAC7-7593F378EE8C}" name="Tabla11" displayName="Tabla11" ref="A1:A2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7078223E-2CA2-4886-AAC7-7593F378EE8C}" name="Tabla11" displayName="Tabla11" ref="A1:A2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:A2" xr:uid="{7078223E-2CA2-4886-AAC7-7593F378EE8C}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2A377931-5BF1-45D1-B1D6-E5A543AFA247}" name="Servicio" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{2A377931-5BF1-45D1-B1D6-E5A543AFA247}" name="Servicio" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1607,7 +1747,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,62 +1758,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1702,12 +1842,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1722,28 +1862,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CCAE28-9763-455F-83A5-5A51914F81A9}">
   <dimension ref="A1:A3"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63DCB1D-CEEA-4515-8D2C-71B53360A69A}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1756,27 +1932,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C0B312-857B-4CB8-9169-D3C16819EF41}">
-  <dimension ref="B1:O134"/>
+  <dimension ref="B1:O137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="83.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="10" customWidth="1"/>
+    <col min="3" max="12" width="8.85546875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="16" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="83.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -1792,43 +1961,44 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="14">
-        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -1871,12 +2041,13 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L3" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-      <c r="O3" s="14">
-        <v>0.57999999999999996</v>
+      <c r="L3" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M3" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -1919,11 +2090,14 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L4" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-      <c r="N4" s="8"/>
+      <c r="L4" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M4" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -1966,11 +2140,14 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L5" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-      <c r="N5" s="8"/>
+      <c r="L5" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M5" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -2013,12 +2190,13 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L6" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>103</v>
+      <c r="L6" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M6" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2061,11 +2239,14 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L7" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-      <c r="O7" s="8"/>
+      <c r="L7" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M7" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -2107,8 +2288,12 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L8" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+      <c r="L8" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M8" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
         <v/>
       </c>
     </row>
@@ -2152,8 +2337,12 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L9" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+      <c r="L9" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M9" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
         <v/>
       </c>
     </row>
@@ -2197,8 +2386,12 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L10" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+      <c r="L10" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M10" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
         <v/>
       </c>
     </row>
@@ -2242,8 +2435,12 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L11" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+      <c r="L11" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
         <v/>
       </c>
     </row>
@@ -2287,8 +2484,12 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L12" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+      <c r="L12" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M12" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
         <v/>
       </c>
     </row>
@@ -2332,8 +2533,12 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L13" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+      <c r="L13" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
         <v/>
       </c>
     </row>
@@ -2377,8 +2582,12 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L14" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+      <c r="L14" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M14" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
         <v/>
       </c>
     </row>
@@ -2422,8 +2631,12 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L15" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+      <c r="L15" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
         <v/>
       </c>
     </row>
@@ -2467,12 +2680,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L16" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2512,12 +2729,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L17" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M17" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2557,12 +2778,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L18" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M18" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2602,12 +2827,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L19" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M19" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2647,12 +2876,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L20" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M20" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2692,12 +2925,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L21" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M21" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2737,12 +2974,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L22" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M22" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2782,12 +3023,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L23" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M23" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2827,12 +3072,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L24" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M24" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2872,12 +3121,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L25" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M25" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2917,12 +3170,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L26" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M26" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
@@ -2962,12 +3219,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L27" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M27" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
@@ -3007,12 +3268,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L28" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M28" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -3052,12 +3317,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L29" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M29" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
@@ -3097,12 +3366,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L30" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M30" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
@@ -3142,12 +3415,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L31" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M31" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
@@ -3187,12 +3464,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L32" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M32" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
@@ -3232,12 +3513,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L33" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M33" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
@@ -3277,12 +3562,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L34" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M34" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
@@ -3322,206 +3611,226 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L35" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M35" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D36" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E36" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F36" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G36" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H36" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I36" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J36" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K36" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L36" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M36" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D37" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F37" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G37" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H37" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I37" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J37" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K37" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L37" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M37" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D38" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E38" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F38" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G38" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H38" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I38" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J38" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K38" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L38" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M38" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D36" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E36" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F36" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G36" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H36" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I36" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J36" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K36" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L36" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="C39" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D39" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E39" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F39" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G39" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H39" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I39" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J39" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K39" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L39" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M39" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D37" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E37" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F37" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G37" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H37" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I37" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J37" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K37" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L37" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D38" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E38" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F38" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G38" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H38" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I38" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J38" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K38" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L38" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D39" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E39" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F39" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G39" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H39" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I39" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J39" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K39" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L39" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C40" s="7" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="D40" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E40" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="D40" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E40" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="F40" s="7" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
@@ -3547,12 +3856,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L40" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M40" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
@@ -3592,12 +3905,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L41" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M41" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
@@ -3637,375 +3954,411 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L42" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M42" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D43" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E43" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F43" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G43" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H43" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I43" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J43" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K43" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L43" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M43" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E44" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M44" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D45" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E45" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F45" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G45" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H45" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I45" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J45" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K45" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L45" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M45" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D46" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E46" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F46" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G46" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H46" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I46" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J46" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K46" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L46" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M46" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D47" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E47" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F47" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G47" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H47" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I47" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J47" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K47" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L47" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M47" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D43" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E43" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F43" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G43" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H43" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I43" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J43" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K43" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L43" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="C48" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D48" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E48" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F48" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H48" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I48" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J48" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K48" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L48" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M48" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D49" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E49" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F49" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H49" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I49" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J49" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K49" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L49" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M49" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E44" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L44" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+      <c r="C50" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D50" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E50" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F50" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H50" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I50" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J50" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K50" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L50" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M50" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D45" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E45" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F45" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G45" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H45" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I45" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J45" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K45" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L45" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D46" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E46" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F46" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G46" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H46" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I46" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J46" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K46" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L46" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D47" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E47" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F47" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G47" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H47" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I47" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J47" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K47" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L47" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D48" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E48" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F48" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G48" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H48" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I48" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J48" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K48" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L48" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D49" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E49" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F49" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G49" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H49" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I49" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J49" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K49" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L49" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D50" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E50" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F50" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G50" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H50" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I50" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J50" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K50" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L50" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C51" s="7" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
@@ -4042,12 +4395,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L51" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L51" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M51" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>41</v>
       </c>
@@ -4087,735 +4444,803 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L52" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M52" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D53" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E53" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F53" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H53" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I53" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J53" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K53" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L53" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M53" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D54" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E54" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F54" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H54" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I54" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J54" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K54" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L54" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M54" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D53" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E53" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F53" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G53" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H53" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I53" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J53" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K53" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L53" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="C55" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D55" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E55" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F55" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G55" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H55" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I55" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J55" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K55" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L55" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M55" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D56" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E56" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F56" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G56" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H56" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I56" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J56" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K56" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L56" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M56" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E57" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F57" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G57" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H57" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I57" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J57" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K57" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L57" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M57" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D54" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E54" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F54" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G54" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H54" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I54" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J54" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K54" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L54" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+      <c r="C58" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D58" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E58" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F58" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H58" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I58" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J58" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K58" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L58" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M58" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F59" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G59" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H59" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I59" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J59" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K59" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L59" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M59" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D60" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E60" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F60" s="12">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G60" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H60" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I60" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J60" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K60" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L60" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M60" s="15" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D61" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E61" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F61" s="12">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G61" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H61" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I61" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J61" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K61" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L61" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M61" s="15" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D62" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E62" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F62" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G62" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H62" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I62" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J62" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K62" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L62" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M62" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D63" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E63" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F63" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G63" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H63" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I63" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J63" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K63" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L63" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M63" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D55" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E55" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F55" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G55" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H55" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I55" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J55" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K55" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L55" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D56" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E56" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F56" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G56" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H56" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I56" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J56" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K56" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L56" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D57" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E57" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F57" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G57" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H57" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I57" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J57" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K57" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L57" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
+      <c r="C64" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D64" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E64" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F64" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G64" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H64" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I64" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J64" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K64" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L64" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M64" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D65" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E65" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F65" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G65" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H65" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I65" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J65" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K65" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L65" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M65" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D66" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E66" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F66" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G66" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H66" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I66" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J66" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K66" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L66" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M66" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D67" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E67" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F67" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G67" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H67" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I67" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J67" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K67" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L67" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M67" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D58" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E58" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F58" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G58" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H58" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I58" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J58" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K58" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L58" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+      <c r="C68" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D68" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E68" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F68" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G68" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H68" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I68" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J68" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K68" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L68" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M68" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F59" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G59" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H59" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I59" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J59" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K59" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L59" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D60" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E60" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F60" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G60" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H60" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I60" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J60" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K60" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L60" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D61" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E61" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F61" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G61" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H61" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I61" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J61" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K61" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L61" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D62" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E62" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F62" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G62" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H62" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I62" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J62" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K62" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L62" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D63" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E63" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F63" s="12">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G63" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H63" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I63" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J63" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K63" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L63" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D64" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E64" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F64" s="12">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G64" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H64" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I64" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J64" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K64" s="12" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L64" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D65" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E65" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F65" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G65" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H65" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I65" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J65" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K65" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L65" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D66" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E66" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F66" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G66" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H66" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I66" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J66" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K66" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L66" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D67" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E67" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F67" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G67" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H67" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I67" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J67" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K67" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L67" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D68" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E68" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F68" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G68" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H68" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I68" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J68" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K68" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L68" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="C69" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
@@ -4852,14 +5277,18 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L69" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L69" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M69" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C70" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -4897,14 +5326,18 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L70" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L70" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M70" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C71" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -4942,14 +5375,18 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L71" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L71" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M71" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C72" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -4987,14 +5424,18 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L72" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L72" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M72" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C73" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -5032,14 +5473,18 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L73" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L73" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M73" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C74" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -5077,14 +5522,18 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L74" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L74" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M74" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C75" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -5122,12 +5571,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L75" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L75" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M75" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
         <v>41</v>
       </c>
@@ -5167,14 +5620,18 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L76" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L76" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M76" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C77" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -5212,14 +5669,18 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L77" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L77" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M77" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C78" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -5257,14 +5718,18 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L78" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L78" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M78" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C79" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -5302,1005 +5767,1097 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L79" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L79" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M79" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D80" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E80" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F80" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G80" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H80" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I80" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J80" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K80" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L80" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M80" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D81" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E81" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F81" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G81" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H81" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I81" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J81" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K81" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L81" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M81" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D82" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E82" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F82" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G82" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H82" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I82" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J82" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K82" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L82" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M82" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D83" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E83" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F83" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G83" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H83" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I83" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J83" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K83" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L83" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M83" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D84" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E84" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F84" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G84" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H84" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I84" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J84" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K84" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L84" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M84" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D85" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E85" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F85" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G85" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H85" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I85" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J85" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K85" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L85" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M85" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D86" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E86" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F86" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G86" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H86" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I86" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J86" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K86" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L86" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M86" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F87" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M87" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F88" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M88" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F89" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M89" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F90" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M90" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D91" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E91" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F91" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G91" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H91" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I91" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J91" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K91" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L91" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M91" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D92" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E92" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F92" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G92" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H92" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I92" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J92" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K92" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L92" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M92" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D93" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E93" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F93" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G93" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H93" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I93" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J93" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K93" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L93" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M93" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D94" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E94" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F94" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G94" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H94" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I94" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J94" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K94" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L94" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M94" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D95" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E95" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F95" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G95" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H95" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I95" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J95" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K95" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L95" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M95" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C80" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D80" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E80" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F80" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G80" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H80" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I80" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J80" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K80" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L80" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D81" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E81" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F81" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G81" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H81" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I81" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J81" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K81" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L81" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D82" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E82" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F82" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G82" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H82" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I82" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J82" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K82" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L82" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C83" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D83" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E83" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F83" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G83" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H83" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I83" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J83" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K83" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L83" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D84" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E84" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F84" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G84" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H84" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I84" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J84" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K84" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L84" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C85" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D85" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E85" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F85" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G85" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H85" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I85" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J85" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K85" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L85" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C86" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D86" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E86" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F86" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G86" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H86" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I86" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J86" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K86" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L86" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F87" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L87" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="11" t="s">
+      <c r="C96" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D96" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E96" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F96" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G96" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H96" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I96" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J96" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K96" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L96" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M96" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F88" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L88" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F89" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L89" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F90" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L90" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D91" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E91" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F91" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G91" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H91" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I91" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J91" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K91" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L91" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D92" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E92" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F92" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G92" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H92" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I92" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J92" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K92" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L92" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="11" t="s">
+      <c r="C97" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D97" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E97" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F97" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G97" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H97" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I97" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J97" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K97" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L97" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M97" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D98" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E98" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F98" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G98" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H98" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I98" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J98" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K98" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L98" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M98" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D99" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E99" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F99" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G99" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H99" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I99" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J99" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K99" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L99" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M99" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D100" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E100" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F100" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G100" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H100" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I100" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J100" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K100" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L100" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M100" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H101" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M101" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D93" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E93" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F93" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G93" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H93" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I93" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J93" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K93" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L93" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D94" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E94" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F94" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G94" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H94" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I94" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J94" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K94" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L94" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D95" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E95" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F95" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G95" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H95" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I95" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J95" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K95" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L95" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C96" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D96" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E96" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F96" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G96" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H96" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I96" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J96" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K96" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L96" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D97" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E97" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F97" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G97" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H97" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I97" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J97" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K97" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L97" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C98" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D98" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E98" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F98" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G98" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H98" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I98" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J98" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K98" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L98" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B99" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C99" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D99" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E99" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F99" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G99" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H99" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I99" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J99" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K99" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L99" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D100" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E100" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F100" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G100" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H100" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I100" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J100" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K100" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L100" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G101" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L101" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="C102" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
@@ -6317,13 +6874,13 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="G102" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H102" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="G102" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H102" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="I102" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6337,12 +6894,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L102" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L102" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M102" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
         <v>54</v>
       </c>
@@ -6366,13 +6927,13 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="H103" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I103" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="H103" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I103" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="J103" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6382,14 +6943,18 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L103" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L103" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M103" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="11" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C104" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6411,30 +6976,34 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="H104" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="H104" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="I104" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="J104" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="J104" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="K104" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L104" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L104" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M104" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" s="11" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C105" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6456,30 +7025,34 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="H105" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="H105" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="I105" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="J105" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="J105" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="K105" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L105" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L105" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M105" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="11" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C106" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6501,9 +7074,9 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="H106" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="H106" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="I106" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6513,18 +7086,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="K106" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L106" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K106" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="L106" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M106" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="11" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C107" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6546,9 +7123,9 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="H107" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="H107" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="I107" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6558,18 +7135,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="K107" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L107" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K107" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="L107" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M107" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="11" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C108" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6607,12 +7188,16 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L108" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L108" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M108" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
         <v>98</v>
       </c>
@@ -6652,18 +7237,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L109" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L109" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M109" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="C110" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="D110" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6681,9 +7270,9 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="H110" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="H110" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="I110" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6697,14 +7286,18 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L110" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L110" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M110" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="11" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C111" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6718,9 +7311,9 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="F111" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="F111" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="G111" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6730,9 +7323,9 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="I111" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="I111" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="J111" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6742,18 +7335,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L111" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L111" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M111" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C112" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+        <v>101</v>
+      </c>
+      <c r="C112" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="D112" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6779,22 +7376,26 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="J112" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="J112" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="K112" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L112" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L112" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M112" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C113" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6824,26 +7425,30 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="J113" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="J113" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="K113" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L113" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L113" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="M113" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C114" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+        <v>103</v>
+      </c>
+      <c r="C114" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="D114" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6873,22 +7478,26 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="K114" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="L114" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K114" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L114" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M114" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C115" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+        <v>104</v>
+      </c>
+      <c r="C115" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="D115" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6918,26 +7527,30 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="K115" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="L115" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K115" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L115" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M115" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C116" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="D116" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="D116" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="E116" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6951,9 +7564,9 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="H116" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="H116" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="I116" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6967,14 +7580,18 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L116" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L116" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M116" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C117" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6988,17 +7605,17 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="F117" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="F117" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="G117" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="H117" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="H117" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="I117" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
@@ -7012,26 +7629,30 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L117" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L117" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M117" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C118" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="C118" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="D118" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="E118" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="E118" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="F118" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
@@ -7057,18 +7678,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L118" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L118" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M118" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C119" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+        <v>110</v>
+      </c>
+      <c r="C119" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="D119" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
@@ -7078,9 +7703,9 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="F119" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="F119" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="G119" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
@@ -7102,26 +7727,30 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L119" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L119" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M119" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C120" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="C120" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="D120" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="E120" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="E120" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="F120" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
@@ -7147,22 +7776,26 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L120" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L120" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M120" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C121" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="D121" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="D121" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="E121" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
@@ -7172,9 +7805,9 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="G121" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="G121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="H121" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
@@ -7192,18 +7825,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L121" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M121" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C122" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="C122" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="D122" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
@@ -7221,9 +7858,9 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="H122" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="H122" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="I122" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
@@ -7237,18 +7874,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L122" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L122" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M122" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C123" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="C123" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="D123" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
@@ -7266,9 +7907,9 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="H123" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
+      <c r="H123" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
       </c>
       <c r="I123" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
@@ -7282,503 +7923,698 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="L123" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L123" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M123" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H124" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M124" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B125" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D124" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L124" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B125" s="11" t="s">
+      <c r="C125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G125" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M125" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B126" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F125" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L125" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B126" s="11" t="s">
+      <c r="C126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L126" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="M126" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B127" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E126" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L126" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B127" s="11" t="s">
+      <c r="C127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G127" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M127" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B128" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D128" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M128" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B129" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G127" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L127" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B128" s="11" t="s">
+      <c r="C129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D129" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M129" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B130" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E130" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M130" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B131" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H131" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M131" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B132" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C128" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L128" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B129" s="11" t="s">
+      <c r="C132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H132" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M132" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B133" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G133" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M133" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B134" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G134" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M134" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G135" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M135" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B136" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E129" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L129" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="11" t="s">
+      <c r="C136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G136" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M136" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B137" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D130" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L130" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B131" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H131" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L131" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B132" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G132" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L132" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B133" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H133" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L133" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B134" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H134" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L134" s="17" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[9. Accesorios]])=1,"","❎")</f>
+      <c r="C137" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D137" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E137" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F137" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G137" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H137" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I137" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J137" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K137" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L137" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M137" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
         <v/>
       </c>
     </row>
@@ -7794,7 +8630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD82325-C883-442E-BAE1-2232B8CCAA6F}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7874,32 +8712,32 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -7914,8 +8752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2404B588-A5E7-4A4D-862D-34C6987F986E}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8030,38 +8868,38 @@
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>34</v>
+      <c r="A22" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
+      <c r="A23" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>93</v>
+      <c r="A25" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>96</v>
+      <c r="A26" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -8077,7 +8915,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8093,62 +8931,62 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
+      <c r="A6" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>95</v>
+      <c r="A11" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -8180,237 +9018,237 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8423,10 +9261,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B6EF07-1B24-43F3-84D1-8FE766884035}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8441,53 +9279,48 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>51</v>
+      <c r="A2" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>52</v>
+      <c r="A3" s="11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>81</v>
+      <c r="A5" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>90</v>
+      <c r="A6" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>80</v>
+      <c r="A7" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>97</v>
+      <c r="A8" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -8500,10 +9333,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A6DBDC-6E11-4A4A-8118-90EDBF21AE1E}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8519,67 +9352,77 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -8611,7 +9454,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/0. Nomina/Info.xlsx
+++ b/0. Nomina/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6D1DDD-907B-41F5-A4C1-0CC0822E1D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C1F115-7E44-4F5C-B1A6-49DFF9A908AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{E10BBF24-8B64-47E0-9392-E6A1EA239C1A}"/>
   </bookViews>
@@ -25,6 +25,8 @@
     <sheet name="8. Maquillaje Salon" sheetId="11" r:id="rId10"/>
     <sheet name="9. Accesorios" sheetId="12" r:id="rId11"/>
     <sheet name="10. Queratina" sheetId="13" r:id="rId12"/>
+    <sheet name="11. TermoCut" sheetId="14" r:id="rId13"/>
+    <sheet name="12. Venta N" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="149">
   <si>
     <t>Blower  Cabello medio</t>
   </si>
@@ -209,9 +211,6 @@
     <t xml:space="preserve">Energizing Intensive Lotion 10 ml </t>
   </si>
   <si>
-    <t>Maquillaje Social</t>
-  </si>
-  <si>
     <t>1. Tocador</t>
   </si>
   <si>
@@ -435,6 +434,66 @@
   </si>
   <si>
     <t>10. Queratina</t>
+  </si>
+  <si>
+    <t>Producto Inhibidor de Vello 100ml</t>
+  </si>
+  <si>
+    <t>11. TermoCut</t>
+  </si>
+  <si>
+    <t>12. Venta N</t>
+  </si>
+  <si>
+    <t>Depilación cera empeine</t>
+  </si>
+  <si>
+    <t>Mechon  desde</t>
+  </si>
+  <si>
+    <t>Scalp-Ego Energizing Lotion 10 ml - Ampolleta</t>
+  </si>
+  <si>
+    <t>Definición y secado risos corto ( Ceremonia Express-Definición y Difusor)</t>
+  </si>
+  <si>
+    <t>Scalp-Ego Shampoo calming 300ml</t>
+  </si>
+  <si>
+    <t>Corte Diseñado Termocut</t>
+  </si>
+  <si>
+    <t>Reposición de aminoacidos cabello largo   - (No Incluye Blower y Plancha)</t>
+  </si>
+  <si>
+    <t>Iluminaciones de color (Desde)</t>
+  </si>
+  <si>
+    <t>Retiro Dipping</t>
+  </si>
+  <si>
+    <t>Spa Manicure Dipping Esmaltado Semipermante</t>
+  </si>
+  <si>
+    <t>Depilacion nariz cera</t>
+  </si>
+  <si>
+    <t>Depilacion Media pierna cera</t>
+  </si>
+  <si>
+    <t>Bikini parcial Cera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cure-Ego Silk oil conditioner 300ml </t>
+  </si>
+  <si>
+    <t>Masaje capilar</t>
+  </si>
+  <si>
+    <t>Maquillaje Social (Salón)</t>
+  </si>
+  <si>
+    <t>Maquillaje Social (Lina)</t>
   </si>
 </sst>
 </file>
@@ -510,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -543,35 +602,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="54">
     <dxf>
       <font>
-        <b/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -582,14 +622,88 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -678,6 +792,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -692,12 +812,6 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1027,6 +1141,101 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1295,82 +1504,108 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8A17379-BA46-4212-9EC9-9D0965690188}" name="Tabla1" displayName="Tabla1" ref="A1:A12" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8A17379-BA46-4212-9EC9-9D0965690188}" name="Tabla1" displayName="Tabla1" ref="A1:A12" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:A12" xr:uid="{D8A17379-BA46-4212-9EC9-9D0965690188}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DDDF52DE-A7F5-4918-BAE0-228DFC5015C3}" name="Profesional" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{DDDF52DE-A7F5-4918-BAE0-228DFC5015C3}" name="Profesional" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79023FAA-DFCC-4099-8434-8B0ABE97BE60}" name="Tabla2" displayName="Tabla2" ref="A1:A3" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:A3" xr:uid="{79023FAA-DFCC-4099-8434-8B0ABE97BE60}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79023FAA-DFCC-4099-8434-8B0ABE97BE60}" name="Tabla2" displayName="Tabla2" ref="A1:A4" totalsRowShown="0" dataDxfId="13">
+  <autoFilter ref="A1:A4" xr:uid="{79023FAA-DFCC-4099-8434-8B0ABE97BE60}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E276A64E-DFE7-4A30-8A37-48100B539CF1}" name="Servicio" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{E276A64E-DFE7-4A30-8A37-48100B539CF1}" name="Servicio" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9D0885F4-CA16-4572-BF62-C213839735A0}" name="Tabla7" displayName="Tabla7" ref="A1:A3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9D0885F4-CA16-4572-BF62-C213839735A0}" name="Tabla7" displayName="Tabla7" ref="A1:A3" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:A3" xr:uid="{9D0885F4-CA16-4572-BF62-C213839735A0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DF5631F7-88DE-4C9E-A41E-6CD65918D18B}" name="Servicio" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{DF5631F7-88DE-4C9E-A41E-6CD65918D18B}" name="Servicio" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{04C2D0A5-8FA9-4925-B13C-6CB7D03F424B}" name="Tabla3" displayName="Tabla3" ref="A1:A3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{04C2D0A5-8FA9-4925-B13C-6CB7D03F424B}" name="Tabla3" displayName="Tabla3" ref="A1:A3" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:A3" xr:uid="{04C2D0A5-8FA9-4925-B13C-6CB7D03F424B}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0E3F8AF1-1BBF-40AC-9F22-6156B84E2280}" name="Servicio" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{0E3F8AF1-1BBF-40AC-9F22-6156B84E2280}" name="Servicio" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A607BB66-029A-453A-9218-2080EF2871B4}" name="Tabla13" displayName="Tabla13" ref="A1:A5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:A5" xr:uid="{A607BB66-029A-453A-9218-2080EF2871B4}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{B8D97D92-2FF1-44EC-8D3D-737CD9230943}" name="Servicio" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{892FB537-B75B-4EA5-A664-67DA9C6019B1}" name="Tabla14" displayName="Tabla14" ref="A1:A2" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A2" xr:uid="{892FB537-B75B-4EA5-A664-67DA9C6019B1}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{D63EC717-AA2D-4115-AEF5-24C2DC29C6FB}" name="Servicio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}" name="Tabla12" displayName="Tabla12" ref="B2:M137" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="B2:M137" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0AE342CE-E699-4674-A921-02F9F207D78B}" name="Servicio" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{419527B9-DDA5-4A0B-905E-3A831C54499E}" name="1. Tocador" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}" name="Tabla12" displayName="Tabla12" ref="B2:O154" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="B2:O154" xr:uid="{E5B4A5EC-23CC-4AAF-BBA4-AA33F630A4B6}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{0AE342CE-E699-4674-A921-02F9F207D78B}" name="Servicio" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{419527B9-DDA5-4A0B-905E-3A831C54499E}" name="1. Tocador" dataDxfId="47">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{99DC3151-6C30-444A-BA5C-53DB38CD220F}" name="2. Spa" dataDxfId="38">
+    <tableColumn id="3" xr3:uid="{99DC3151-6C30-444A-BA5C-53DB38CD220F}" name="2. Spa" dataDxfId="46">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BA3838B7-7F09-4EFB-9D32-BB9DFD02D26F}" name="3. Depilacion" dataDxfId="37">
+    <tableColumn id="4" xr3:uid="{BA3838B7-7F09-4EFB-9D32-BB9DFD02D26F}" name="3. Depilacion" dataDxfId="45">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5A247591-A58E-4EC6-AC99-2ADC27E4872C}" name="4. Bac" dataDxfId="36">
+    <tableColumn id="5" xr3:uid="{5A247591-A58E-4EC6-AC99-2ADC27E4872C}" name="4. Bac" dataDxfId="44">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E1532FE0-39AB-4F45-81F6-CFEF920628FE}" name="5. Colorimetria" dataDxfId="35">
+    <tableColumn id="6" xr3:uid="{E1532FE0-39AB-4F45-81F6-CFEF920628FE}" name="5. Colorimetria" dataDxfId="43">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{16A474C9-BB75-4268-AE3E-3C3DEB67229E}" name="6. Venta" dataDxfId="34">
+    <tableColumn id="7" xr3:uid="{16A474C9-BB75-4268-AE3E-3C3DEB67229E}" name="6. Venta" dataDxfId="42">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3CF11973-154C-4E96-82A9-31E0B527D076}" name="7. Maquillaje" dataDxfId="33">
+    <tableColumn id="8" xr3:uid="{3CF11973-154C-4E96-82A9-31E0B527D076}" name="7. Maquillaje" dataDxfId="41">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F0E7B1E6-9CCD-48D9-A9AF-6D5A72E8E9E2}" name="8. Maquillaje Salon" dataDxfId="32">
+    <tableColumn id="10" xr3:uid="{F0E7B1E6-9CCD-48D9-A9AF-6D5A72E8E9E2}" name="8. Maquillaje Salon" dataDxfId="40">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{ACBEE4F2-B48F-432D-9A07-7BE3CE0D5D1D}" name="9. Accesorios" dataDxfId="31">
+    <tableColumn id="11" xr3:uid="{ACBEE4F2-B48F-432D-9A07-7BE3CE0D5D1D}" name="9. Accesorios" dataDxfId="39">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4F5B7738-418D-4F08-845F-79C3CBAEA662}" name="10. Queratina" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{4F5B7738-418D-4F08-845F-79C3CBAEA662}" name="10. Queratina" dataDxfId="38">
       <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7C405853-C47F-4C20-8EE1-68C01368E1B6}" name="Vericador" dataDxfId="0">
-      <calculatedColumnFormula>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{E2C80E3A-3DA4-4EE6-B6EA-1D75E23F12FF}" name="11. TermoCut" dataDxfId="37">
+      <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{E656FBBA-EA58-426D-8559-4D2CFCE10C10}" name="12. Venta N" dataDxfId="36">
+      <calculatedColumnFormula>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{7C405853-C47F-4C20-8EE1-68C01368E1B6}" name="Vericador" dataDxfId="35">
+      <calculatedColumnFormula>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1378,70 +1613,70 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}" name="Tabla4" displayName="Tabla4" ref="A1:A20" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:A20" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}" name="Tabla4" displayName="Tabla4" ref="A1:A17" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:A17" xr:uid="{513E435A-5C6B-4ABF-A51B-E8068E26EF98}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{21692516-7C50-4234-9E59-8754AD7371D9}" name="Servicio" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{21692516-7C50-4234-9E59-8754AD7371D9}" name="Servicio" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}" name="Tabla5" displayName="Tabla5" ref="A1:A28" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:A28" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}" name="Tabla5" displayName="Tabla5" ref="A1:A30" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:A30" xr:uid="{C36286FF-86AB-4AAB-8D61-71004096C9F8}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EC786493-6094-480F-9692-94A07AC2F5C2}" name="Servicio" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{EC786493-6094-480F-9692-94A07AC2F5C2}" name="Servicio" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}" name="Tabla6" displayName="Tabla6" ref="A1:A13" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:A13" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}" name="Tabla6" displayName="Tabla6" ref="A1:A17" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:A17" xr:uid="{F6449331-C52F-4026-92D6-8ADA6C558F5A}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E7C4D8EA-5DCF-40D4-A927-81FEDB24ECEE}" name="Servicio" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{E7C4D8EA-5DCF-40D4-A927-81FEDB24ECEE}" name="Servicio" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}" name="Tabla8" displayName="Tabla8" ref="A1:A48" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:A48" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}" name="Tabla8" displayName="Tabla8" ref="A1:A51" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:A51" xr:uid="{06E35A94-D4F4-436E-B9A2-20D1777EE85D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F6BDF89A-26A1-465D-8AC4-4D1B0D141FDA}" name="Servicio" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{F6BDF89A-26A1-465D-8AC4-4D1B0D141FDA}" name="Servicio" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}" name="Tabla9" displayName="Tabla9" ref="A1:A10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:A10" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}" name="Tabla9" displayName="Tabla9" ref="A1:A12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:A12" xr:uid="{8F17279D-8BB3-4F47-BDA2-D4B0B503999D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{98EAFF14-E836-4D53-B221-D8250D4DCB23}" name="Servicio" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{98EAFF14-E836-4D53-B221-D8250D4DCB23}" name="Servicio" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}" name="Tabla10" displayName="Tabla10" ref="A1:A16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:A16" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}" name="Tabla10" displayName="Tabla10" ref="A1:A19" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:A19" xr:uid="{4BF8DC9D-BBFD-4565-9457-5C2CBB709635}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DB57ABA3-E3AD-4F77-B798-6C0D142D72DC}" name="Servicio" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{DB57ABA3-E3AD-4F77-B798-6C0D142D72DC}" name="Servicio" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7078223E-2CA2-4886-AAC7-7593F378EE8C}" name="Tabla11" displayName="Tabla11" ref="A1:A2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7078223E-2CA2-4886-AAC7-7593F378EE8C}" name="Tabla11" displayName="Tabla11" ref="A1:A2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:A2" xr:uid="{7078223E-2CA2-4886-AAC7-7593F378EE8C}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2A377931-5BF1-45D1-B1D6-E5A543AFA247}" name="Servicio" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{2A377931-5BF1-45D1-B1D6-E5A543AFA247}" name="Servicio" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1747,7 +1982,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,62 +1993,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1826,9 +2061,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33D294-C775-45F8-94A3-CFDA2803EDCE}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1842,12 +2079,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1877,12 +2119,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1897,9 +2139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63DCB1D-CEEA-4515-8D2C-71B53360A69A}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1914,12 +2154,89 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4095AAA-DCC5-4DA1-A42D-581CA993ABB3}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188F1A63-D10E-4DC0-8C33-FF3F235AC721}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1932,24 +2249,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C0B312-857B-4CB8-9169-D3C16819EF41}">
-  <dimension ref="B1:O137"/>
+  <dimension ref="B1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" style="10" customWidth="1"/>
-    <col min="3" max="12" width="8.85546875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="16" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="83.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="14" width="8.85546875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="16" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="83.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1962,46 +2277,54 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2045,12 +2368,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M3" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M3" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N3" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O3" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2094,13 +2425,21 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M4" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M4" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N4" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O4" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2144,13 +2483,21 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M5" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M5" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N5" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O5" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2194,12 +2541,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M6" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M6" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N6" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O6" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2243,12 +2598,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M7" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N7" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O7" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2292,12 +2655,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M8" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M8" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N8" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O8" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2341,12 +2712,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M9" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M9" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N9" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O9" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2390,18 +2769,26 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M10" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M10" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N10" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O10" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="C11" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="D11" s="7" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
@@ -2439,12 +2826,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M11" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M11" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O11" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2488,12 +2883,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M12" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N12" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O12" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -2537,18 +2940,26 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M13" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M13" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N13" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
+      <c r="C14" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
       </c>
       <c r="D14" s="7" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
@@ -2586,12 +2997,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M14" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M14" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2635,12 +3054,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M15" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M15" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N15" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2684,12 +3111,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M16" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N16" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2733,12 +3168,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M17" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N17" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2782,12 +3225,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M18" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N18" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O18" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2831,12 +3282,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M19" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N19" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O19" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2880,12 +3339,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M20" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N20" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O20" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2929,12 +3396,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M21" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N21" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O21" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2978,12 +3453,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M22" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N22" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O22" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3027,12 +3510,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M23" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N23" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O23" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
@@ -3076,12 +3567,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M24" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N24" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O24" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
@@ -3125,12 +3624,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M25" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N25" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
@@ -3174,12 +3681,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M26" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N26" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O26" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
@@ -3223,12 +3738,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M27" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M27" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N27" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O27" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
@@ -3272,12 +3795,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M28" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M28" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N28" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O28" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
@@ -3321,12 +3852,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M29" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N29" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O29" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
@@ -3370,12 +3909,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M30" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M30" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N30" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O30" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
@@ -3419,12 +3966,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M31" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N31" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O31" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
@@ -3468,12 +4023,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M32" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N32" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O32" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
@@ -3517,12 +4080,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M33" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N33" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O33" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
@@ -3566,12 +4137,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M34" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N34" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O34" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
@@ -3615,14 +4194,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M35" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N35" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O35" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="7" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -3664,14 +4251,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M36" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N36" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O36" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="7" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -3713,14 +4308,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M37" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N37" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O37" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="7" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -3762,12 +4365,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M38" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N38" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O38" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
@@ -3811,12 +4422,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M39" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N39" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O39" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
@@ -3860,12 +4479,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M40" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N40" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O40" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
@@ -3909,12 +4536,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M41" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N41" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O41" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
@@ -3958,14 +4593,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M42" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N42" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O42" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="7" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -4007,64 +4650,80 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M43" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N43" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O43" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E44" s="7">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N44" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O44" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E44" s="7">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L44" s="7" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M44" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C45" s="7" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
@@ -4105,14 +4764,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M45" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N45" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O45" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="7" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -4154,14 +4821,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M46" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N46" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O46" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="7" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -4203,12 +4878,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M47" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N47" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O47" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>38</v>
       </c>
@@ -4252,12 +4935,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M48" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N48" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O48" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>38</v>
       </c>
@@ -4301,12 +4992,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M49" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N49" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O49" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>39</v>
       </c>
@@ -4350,12 +5049,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M50" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N50" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O50" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>40</v>
       </c>
@@ -4399,12 +5106,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M51" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N51" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O51" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>41</v>
       </c>
@@ -4448,12 +5163,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M52" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N52" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O52" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>40</v>
       </c>
@@ -4497,12 +5220,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M53" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N53" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O53" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>41</v>
       </c>
@@ -4546,12 +5277,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M54" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N54" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O54" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>42</v>
       </c>
@@ -4595,12 +5334,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M55" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N55" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O55" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>38</v>
       </c>
@@ -4644,12 +5391,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M56" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M56" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N56" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O56" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>41</v>
       </c>
@@ -4693,12 +5448,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M57" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M57" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N57" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O57" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>43</v>
       </c>
@@ -4742,12 +5505,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M58" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M58" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N58" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O58" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>40</v>
       </c>
@@ -4791,12 +5562,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M59" s="14" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M59" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N59" s="7" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O59" s="14" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>41</v>
       </c>
@@ -4840,12 +5619,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M60" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M60" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N60" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O60" s="15" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>41</v>
       </c>
@@ -4889,12 +5676,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M61" s="15" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M61" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N61" s="12" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O61" s="15" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>43</v>
       </c>
@@ -4938,12 +5733,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M62" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M62" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N62" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O62" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
         <v>40</v>
       </c>
@@ -4987,12 +5790,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M63" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M63" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N63" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O63" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
         <v>44</v>
       </c>
@@ -5036,12 +5847,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M64" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M64" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N64" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O64" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
         <v>41</v>
       </c>
@@ -5085,12 +5904,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M65" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M65" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N65" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O65" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
         <v>41</v>
       </c>
@@ -5134,12 +5961,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M66" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M66" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N66" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O66" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
         <v>41</v>
       </c>
@@ -5183,12 +6018,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M67" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M67" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N67" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O67" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
         <v>45</v>
       </c>
@@ -5232,12 +6075,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M68" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M68" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N68" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O68" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
         <v>41</v>
       </c>
@@ -5281,12 +6132,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M69" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M69" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N69" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O69" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
         <v>41</v>
       </c>
@@ -5330,12 +6189,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M70" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M70" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N70" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O70" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
         <v>41</v>
       </c>
@@ -5379,12 +6246,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M71" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M71" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N71" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O71" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
         <v>41</v>
       </c>
@@ -5428,12 +6303,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M72" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M72" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N72" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O72" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
         <v>38</v>
       </c>
@@ -5477,12 +6360,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M73" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M73" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N73" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O73" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>41</v>
       </c>
@@ -5526,12 +6417,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M74" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M74" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N74" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O74" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
         <v>41</v>
       </c>
@@ -5575,12 +6474,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M75" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M75" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N75" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O75" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
         <v>41</v>
       </c>
@@ -5624,12 +6531,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M76" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M76" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N76" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O76" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
         <v>46</v>
       </c>
@@ -5673,12 +6588,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M77" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M77" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N77" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O77" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
         <v>46</v>
       </c>
@@ -5722,12 +6645,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M78" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M78" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N78" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O78" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
         <v>43</v>
       </c>
@@ -5771,12 +6702,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M79" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M79" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N79" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O79" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
         <v>39</v>
       </c>
@@ -5820,12 +6759,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M80" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M80" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N80" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O80" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
         <v>41</v>
       </c>
@@ -5869,12 +6816,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M81" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M81" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N81" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O81" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="11" t="s">
         <v>41</v>
       </c>
@@ -5918,12 +6873,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M82" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M82" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N82" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O82" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="11" t="s">
         <v>41</v>
       </c>
@@ -5967,12 +6930,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M83" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M83" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N83" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O83" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
         <v>42</v>
       </c>
@@ -6016,12 +6987,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M84" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M84" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N84" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O84" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
         <v>47</v>
       </c>
@@ -6065,12 +7044,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M85" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M85" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N85" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O85" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
         <v>42</v>
       </c>
@@ -6114,211 +7101,251 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M86" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M86" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N86" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O86" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F87" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N87" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O87" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F87" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L87" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M87" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="11" t="s">
+      <c r="C88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F88" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N88" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O88" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F89" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N89" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O89" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F90" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N90" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O90" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F88" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L88" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M88" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F89" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L89" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M89" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F90" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L90" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M90" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="C91" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
@@ -6359,14 +7386,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M91" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M91" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N91" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O91" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6408,14 +7443,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M92" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M92" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N92" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O92" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C93" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6457,14 +7500,22 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M93" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M93" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N93" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O93" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
@@ -6506,12 +7557,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M94" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M94" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N94" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O94" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
         <v>48</v>
       </c>
@@ -6555,12 +7614,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M95" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M95" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N95" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O95" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" s="11" t="s">
         <v>49</v>
       </c>
@@ -6604,12 +7671,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M96" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M96" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N96" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O96" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="11" t="s">
         <v>50</v>
       </c>
@@ -6653,12 +7728,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M97" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M97" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N97" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O97" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98" s="11" t="s">
         <v>51</v>
       </c>
@@ -6702,12 +7785,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M98" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M98" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N98" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O98" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="11" t="s">
         <v>52</v>
       </c>
@@ -6751,12 +7842,20 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M99" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M99" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N99" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O99" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100" s="11" t="s">
         <v>53</v>
       </c>
@@ -6800,309 +7899,365 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M100" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M100" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N100" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O100" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H101" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N101" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O101" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H101" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L101" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M101" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="11" t="s">
+      <c r="C102" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D102" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E102" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F102" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G102" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H102" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I102" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J102" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K102" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L102" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M102" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N102" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O102" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D103" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E103" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F103" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G103" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H103" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I103" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="J103" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K103" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L103" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M103" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N103" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O103" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D104" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E104" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F104" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G104" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H104" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I104" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J104" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K104" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L104" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M104" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N104" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O104" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D102" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E102" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F102" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G102" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H102" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I102" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J102" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K102" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L102" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M102" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C103" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D103" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E103" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F103" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G103" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H103" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I103" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="J103" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K103" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L103" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M103" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C104" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D104" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E104" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F104" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G104" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H104" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I104" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J104" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K104" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L104" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M104" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="11" t="s">
+      <c r="C105" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D105" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E105" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F105" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G105" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H105" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I105" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J105" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K105" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L105" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M105" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N105" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O105" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C105" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D105" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E105" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F105" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G105" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H105" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I105" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J105" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K105" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L105" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M105" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B106" s="11" t="s">
+      <c r="C106" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D106" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E106" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F106" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G106" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H106" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I106" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J106" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K106" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="L106" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M106" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N106" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O106" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C106" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D106" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E106" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F106" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G106" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H106" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I106" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J106" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K106" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="L106" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M106" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B107" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="C107" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
@@ -7143,358 +8298,422 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M107" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M107" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N107" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O107" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B108" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D108" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E108" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F108" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G108" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H108" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I108" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J108" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K108" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L108" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M108" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N108" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O108" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D108" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E108" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F108" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G108" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H108" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I108" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J108" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K108" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L108" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M108" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="11" t="s">
+      <c r="C109" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D109" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E109" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F109" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G109" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H109" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I109" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J109" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K109" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L109" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M109" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N109" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O109" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D109" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E109" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F109" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G109" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H109" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I109" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J109" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K109" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L109" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M109" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="11" t="s">
+      <c r="C110" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D110" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E110" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F110" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G110" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H110" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I110" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J110" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K110" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L110" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M110" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N110" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O110" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D110" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E110" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F110" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G110" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H110" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I110" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J110" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K110" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L110" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M110" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="11" t="s">
+      <c r="C111" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D111" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E111" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F111" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G111" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H111" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I111" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J111" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K111" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L111" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M111" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N111" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O111" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B112" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C111" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D111" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E111" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F111" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G111" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H111" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I111" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J111" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K111" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L111" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M111" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="11" t="s">
+      <c r="C112" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D112" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E112" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F112" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G112" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H112" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I112" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J112" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K112" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L112" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M112" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N112" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O112" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B113" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C112" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D112" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E112" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F112" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G112" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H112" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I112" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J112" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K112" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L112" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M112" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="11" t="s">
+      <c r="C113" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D113" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E113" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F113" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G113" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H113" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I113" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J113" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K113" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L113" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="M113" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N113" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O113" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B114" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C113" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D113" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E113" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F113" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G113" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H113" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I113" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J113" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K113" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L113" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="M113" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="11" t="s">
+      <c r="C114" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="D114" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E114" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F114" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G114" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H114" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I114" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J114" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K114" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L114" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M114" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N114" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O114" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B115" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C114" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D114" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E114" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F114" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G114" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H114" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I114" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J114" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K114" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L114" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M114" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="C115" s="13">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
         <v>1</v>
@@ -7535,1044 +8754,1220 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M115" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M115" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N115" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O115" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B116" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D116" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E116" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F116" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G116" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H116" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I116" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J116" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K116" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L116" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M116" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N116" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O116" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B117" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C116" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D116" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E116" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F116" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G116" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H116" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I116" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J116" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K116" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L116" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M116" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="11" t="s">
+      <c r="C117" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D117" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E117" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F117" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G117" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H117" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I117" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J117" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K117" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L117" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M117" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N117" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O117" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B118" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C117" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D117" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E117" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F117" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="G117" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H117" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I117" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J117" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K117" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L117" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M117" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="11" t="s">
+      <c r="C118" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D118" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E118" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F118" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G118" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H118" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I118" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J118" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K118" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L118" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M118" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N118" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O118" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B119" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C118" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D118" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E118" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F118" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G118" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H118" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I118" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J118" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K118" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L118" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M118" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B119" s="11" t="s">
+      <c r="C119" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D119" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E119" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F119" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G119" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H119" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I119" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J119" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K119" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L119" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M119" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="N119" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O119" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B120" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C119" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="D119" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E119" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F119" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G119" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H119" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I119" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J119" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K119" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L119" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M119" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="11" t="s">
+      <c r="C120" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D120" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E120" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F120" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G120" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H120" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I120" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J120" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K120" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L120" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M120" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N120" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O120" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B121" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C120" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D120" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E120" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F120" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G120" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H120" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I120" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J120" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K120" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L120" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M120" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B121" s="11" t="s">
+      <c r="C121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D121" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N121" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O121" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B122" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C121" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D121" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E121" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F121" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G121" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H121" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I121" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J121" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K121" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L121" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M121" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B122" s="11" t="s">
+      <c r="C122" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D122" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E122" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F122" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G122" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H122" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I122" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J122" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K122" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L122" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M122" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N122" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O122" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B123" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C122" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D122" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E122" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F122" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G122" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H122" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I122" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J122" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K122" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L122" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M122" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B123" s="11" t="s">
+      <c r="C123" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D123" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E123" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F123" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G123" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H123" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I123" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J123" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K123" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L123" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M123" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N123" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O123" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B124" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C123" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D123" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E123" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F123" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G123" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H123" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I123" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J123" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K123" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L123" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M123" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B124" s="11" t="s">
+      <c r="C124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H124" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N124" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O124" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B125" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H124" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L124" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M124" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B125" s="11" t="s">
+      <c r="C125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G125" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N125" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O125" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B126" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G125" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L125" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M125" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B126" s="11" t="s">
+      <c r="C126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L126" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="M126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N126" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O126" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B127" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K126" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L126" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="M126" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B127" s="11" t="s">
+      <c r="C127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G127" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N127" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O127" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B128" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D128" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N128" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O128" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B129" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G127" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L127" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M127" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B128" s="11" t="s">
+      <c r="C129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D129" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N129" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O129" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B130" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E130" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N130" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O130" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B131" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H131" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N131" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O131" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B132" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H132" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N132" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O132" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B133" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D128" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L128" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M128" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D129" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L129" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M129" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B130" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E130" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="F130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L130" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M130" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="11" t="s">
+      <c r="C133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G133" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N133" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O133" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B134" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H131" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L131" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M131" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B132" s="11" t="s">
+      <c r="C134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G134" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N134" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O134" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B135" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G135" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N135" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O135" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B136" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="H132" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="I132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L132" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M132" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B133" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G133" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L133" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M133" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B134" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G134" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L134" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M134" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B135" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C135" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D135" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E135" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F135" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G135" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H135" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I135" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J135" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K135" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L135" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M135" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B136" s="11" t="s">
+      <c r="C136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G136" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N136" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O136" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B137" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C136" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="D136" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="E136" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="F136" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G136" s="13">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
-        <v>1</v>
-      </c>
-      <c r="H136" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="I136" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="J136" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="K136" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="L136" s="13" t="str">
-        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
-        <v/>
-      </c>
-      <c r="M136" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B137" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="C137" s="13" t="str">
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
@@ -8613,8 +10008,985 @@
         <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
         <v/>
       </c>
-      <c r="M137" s="16" t="str">
-        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[10. Queratina]])=1,"","❎")</f>
+      <c r="M137" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N137" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O137" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B138" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D138" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E138" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F138" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G138" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H138" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I138" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J138" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K138" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L138" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M138" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N138" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="O138" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B139" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D139" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E139" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F139" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G139" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H139" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I139" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J139" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K139" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L139" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M139" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N139" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O139" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B140" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C140" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D140" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E140" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F140" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G140" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H140" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I140" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J140" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K140" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L140" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M140" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N140" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O140" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B141" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C141" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D141" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E141" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F141" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G141" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H141" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I141" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J141" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K141" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L141" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M141" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N141" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O141" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B142" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C142" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D142" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E142" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F142" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G142" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H142" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I142" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J142" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K142" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L142" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M142" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N142" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O142" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B143" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C143" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D143" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E143" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F143" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G143" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H143" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I143" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J143" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K143" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L143" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M143" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N143" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O143" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B144" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C144" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D144" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E144" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F144" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G144" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H144" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I144" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J144" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K144" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L144" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M144" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="N144" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O144" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B145" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C145" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D145" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E145" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F145" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G145" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H145" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I145" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J145" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K145" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L145" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M145" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N145" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O145" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B146" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C146" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D146" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E146" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F146" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G146" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H146" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I146" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J146" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K146" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L146" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M146" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N146" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O146" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B147" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C147" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D147" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E147" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F147" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G147" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H147" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I147" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J147" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K147" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L147" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M147" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N147" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O147" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B148" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C148" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D148" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E148" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F148" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G148" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H148" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I148" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J148" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K148" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L148" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M148" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N148" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O148" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B149" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C149" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D149" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E149" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F149" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G149" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H149" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I149" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J149" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K149" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L149" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M149" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N149" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O149" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B150" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C150" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D150" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E150" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F150" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G150" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H150" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I150" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J150" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K150" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L150" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M150" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N150" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O150" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B151" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C151" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D151" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E151" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F151" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G151" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H151" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I151" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J151" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K151" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L151" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M151" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N151" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O151" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B152" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C152" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D152" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E152" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F152" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G152" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H152" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I152" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J152" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K152" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L152" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M152" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N152" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O152" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B153" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C153" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D153" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E153" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F153" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="G153" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H153" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I153" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J153" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="K153" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L153" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M153" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N153" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O153" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B154" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C154" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla4[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="D154" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla5[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="E154" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla6[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="F154" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla8[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="G154" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla9[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="H154" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla10[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="I154" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla11[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="J154" s="13">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla2[Servicio],0)&gt;=1,1,""),"")</f>
+        <v>1</v>
+      </c>
+      <c r="K154" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla7[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="L154" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla3[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="M154" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla13[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="N154" s="13" t="str">
+        <f>IFERROR(IF(MATCH(Tabla12[[#This Row],[Servicio]],Tabla14[Servicio],0)&gt;=1,1,""),"")</f>
+        <v/>
+      </c>
+      <c r="O154" s="16" t="str">
+        <f>IF(SUM(Tabla12[[#This Row],[1. Tocador]:[12. Venta N]])=1,"","❎")</f>
         <v/>
       </c>
     </row>
@@ -8628,10 +11000,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD82325-C883-442E-BAE1-2232B8CCAA6F}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8687,57 +11059,42 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
+      <c r="A13" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>99</v>
+      <c r="A15" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -8750,10 +11107,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2404B588-A5E7-4A4D-862D-34C6987F986E}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A32"/>
+      <selection activeCell="A29" sqref="A29:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8869,37 +11226,47 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -8912,9 +11279,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF576B40-A3A0-4963-907F-D5A9DDD7522F}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -8951,42 +11318,62 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -8999,10 +11386,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5635A02E-CA20-433E-BF86-A0572048DCDB}">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9213,42 +11600,57 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -9261,10 +11663,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B6EF07-1B24-43F3-84D1-8FE766884035}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9280,47 +11682,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -9333,10 +11745,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A6DBDC-6E11-4A4A-8118-90EDBF21AE1E}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9382,47 +11794,62 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -9438,12 +11865,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -9454,7 +11881,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
